--- a/Check.xlsx
+++ b/Check.xlsx
@@ -205,12 +205,102 @@
   <si>
     <t>Проверка кнопки выхода из аккаунта</t>
   </si>
+  <si>
+    <t>Проверка ввода незарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Проверка входа при пустых полях логина и пароля</t>
+  </si>
+  <si>
+    <t>Проверка создания записи без оглавления</t>
+  </si>
+  <si>
+    <t>Проверка ввода времени, ручным вводом</t>
+  </si>
+  <si>
+    <t>Проверка при вводе ручным способом некорректного времени</t>
+  </si>
+  <si>
+    <t>Проверка ввода несуществующей категории</t>
+  </si>
+  <si>
+    <t>Проверка Сохранение новой записи с пустыми полями</t>
+  </si>
+  <si>
+    <t>Проверка Сохранение новой записи без даты</t>
+  </si>
+  <si>
+    <t>Проверка Сохранение новой записи без выбора даты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка </t>
+  </si>
+  <si>
+    <t>Проверка Сохранение новой записи без выбора Времени</t>
+  </si>
+  <si>
+    <t>Проверка Сохранение новой записи без выбора Категории</t>
+  </si>
+  <si>
+    <t>Проверка открытия окна с выбором фильтров при нажатии кнопки фильтр</t>
+  </si>
+  <si>
+    <t>Проверка открытия окна с выбором фильтров при нажатии кнопки "Фильтр"</t>
+  </si>
+  <si>
+    <t>Вверху название экрана: «Фильтровать Новости». В центре форма с полями. Внизу кнопки: «Фильтровать», «Отмена»</t>
+  </si>
+  <si>
+    <t>Выбор категории из выпадающего списка</t>
+  </si>
+  <si>
+    <t>Выбор даты начала в календаре</t>
+  </si>
+  <si>
+    <t>Выбор даты окончания в календаре</t>
+  </si>
+  <si>
+    <t>Чекбокс «Активна»</t>
+  </si>
+  <si>
+    <t>Чекбокс «Не активна»</t>
+  </si>
+  <si>
+    <t>Фильтрация записей при нажатии «Фильтровать»</t>
+  </si>
+  <si>
+    <t>При нажатии «Отмена» записи не фильтруются</t>
+  </si>
+  <si>
+    <t>Нагрузочное тестирование</t>
+  </si>
+  <si>
+    <t>Объёмное тестирование</t>
+  </si>
+  <si>
+    <t>Стрессовое тестирование</t>
+  </si>
+  <si>
+    <t>Проверка общей безопасности</t>
+  </si>
+  <si>
+    <t>Тестирование доступа</t>
+  </si>
+  <si>
+    <t>Анализ рисков атак</t>
+  </si>
+  <si>
+    <t>Тестирование производительности</t>
+  </si>
+  <si>
+    <t>Тестирование безопасности</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +324,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -442,11 +548,18 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -907,6 +1020,103 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,13 +1434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A46">
+      <selection activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="8.88671875"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" style="11"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" style="155"/>
     <col min="2" max="2" width="69.77734375" customWidth="1" style="76"/>
     <col min="3" max="3" width="17.109375" customWidth="1" style="11"/>
     <col min="4" max="4" width="22.77734375" customWidth="1" style="11"/>
@@ -1238,7 +1448,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="21" customFormat="1" s="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="129" t="s">
@@ -1251,11 +1461,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="15">
-      <c r="A2" s="28" t="s">
+    <row r="2" ht="15" customFormat="1" s="15">
+      <c r="A2" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="72" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="128" t="s">
@@ -1265,8 +1475,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="1" s="15">
-      <c r="A3" s="24"/>
+    <row r="3" ht="15" customFormat="1" s="15">
+      <c r="A3" s="152"/>
       <c r="B3" s="83" t="s">
         <v>41</v>
       </c>
@@ -1278,374 +1488,640 @@
       </c>
     </row>
     <row r="4" ht="15" customFormat="1" s="15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customFormat="1" s="15">
+      <c r="A5" s="152"/>
+      <c r="B5" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customFormat="1" s="15">
+      <c r="A6" s="152"/>
+      <c r="B6" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" s="11">
-      <c r="A5" s="24" t="s">
+      <c r="D6" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customFormat="1" s="11">
+      <c r="A7" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customFormat="1" s="11">
-      <c r="A6" s="24"/>
-      <c r="B6" s="89" t="s">
+      <c r="D7" s="106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customFormat="1" s="11">
+      <c r="A8" s="152"/>
+      <c r="B8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C8" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customFormat="1" s="11">
-      <c r="A7" s="24"/>
-      <c r="B7" s="89" t="s">
+      <c r="D8" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customFormat="1" s="11">
+      <c r="A9" s="152"/>
+      <c r="B9" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customFormat="1" s="11">
-      <c r="A8" s="56" t="s">
+      <c r="C9" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customFormat="1" s="11">
+      <c r="A10" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C10" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customFormat="1" s="11">
-      <c r="A9" s="56"/>
-      <c r="B9" s="124" t="s">
+      <c r="D10" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customFormat="1" s="11">
+      <c r="A11" s="152"/>
+      <c r="B11" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C11" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customFormat="1" s="11">
-      <c r="A10" s="56"/>
-      <c r="B10" s="83" t="s">
+      <c r="D11" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customFormat="1" s="11">
+      <c r="A12" s="152"/>
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customFormat="1" s="11">
-      <c r="A11" s="56"/>
-      <c r="B11" s="83" t="s">
+      <c r="C12" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customFormat="1" s="11">
+      <c r="A13" s="152"/>
+      <c r="B13" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customFormat="1" s="11">
-      <c r="A12" s="55" t="s">
+      <c r="C13" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customFormat="1" s="11">
+      <c r="A14" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C14" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customFormat="1" s="11">
-      <c r="A13" s="55"/>
-      <c r="B13" s="89" t="s">
+      <c r="D14" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customFormat="1" s="11">
+      <c r="A15" s="153"/>
+      <c r="B15" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C15" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customFormat="1" s="11">
-      <c r="A14" s="55"/>
-      <c r="B14" s="89" t="s">
+      <c r="D15" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customFormat="1" s="11">
+      <c r="A16" s="153"/>
+      <c r="B16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customFormat="1" s="11">
-      <c r="A15" s="55"/>
-      <c r="B15" s="89" t="s">
+      <c r="C16" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customFormat="1" s="11">
+      <c r="A17" s="153"/>
+      <c r="B17" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C17" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="30" customFormat="1" s="11">
-      <c r="A16" s="24" t="s">
+      <c r="D17" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customFormat="1" s="11">
+      <c r="A18" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B18" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C18" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="89" t="s">
+      <c r="D18" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15">
+      <c r="A19" s="152"/>
+      <c r="B19" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" ht="15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="89" t="s">
+      <c r="C19" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="15">
+      <c r="A20" s="152"/>
+      <c r="B20" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15">
+      <c r="A21" s="152"/>
+      <c r="B21" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="89" t="s">
+      <c r="C21" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="152"/>
+      <c r="B22" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="152"/>
+      <c r="B23" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="120" t="s">
+      <c r="C23" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" ht="15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="89" t="s">
+    <row r="24" ht="15">
+      <c r="A24" s="152"/>
+      <c r="B24" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15">
+      <c r="A25" s="152"/>
+      <c r="B25" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="15">
+      <c r="A26" s="152"/>
+      <c r="B26" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="89" t="s">
+      <c r="C26" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" s="152"/>
+      <c r="B27" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="120" t="s">
+      <c r="C27" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" ht="15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="89" t="s">
+    <row r="28" ht="15">
+      <c r="A28" s="152"/>
+      <c r="B28" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="120" t="s">
+      <c r="C28" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="89" t="s">
+    <row r="29" ht="15">
+      <c r="A29" s="152"/>
+      <c r="B29" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" ht="15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="89" t="s">
+      <c r="C29" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="15">
+      <c r="A30" s="152"/>
+      <c r="B30" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="15">
+      <c r="A31" s="152"/>
+      <c r="B31" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="15">
+      <c r="A32" s="152"/>
+      <c r="B32" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="15">
+      <c r="A33" s="152"/>
+      <c r="B33" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+    </row>
+    <row r="34" ht="15">
+      <c r="A34" s="152"/>
+      <c r="B34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customFormat="1" s="11">
-      <c r="A25" s="24" t="s">
+      <c r="C34" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customFormat="1" s="11">
+      <c r="A35" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B35" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="24"/>
-      <c r="B26" s="125" t="s">
+      <c r="C35" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="15">
+      <c r="A36" s="152"/>
+      <c r="B36" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C36" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="24"/>
-      <c r="B27" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="24"/>
-      <c r="B28" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" ht="15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="89" t="s">
+      <c r="D36" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="30">
+      <c r="A37" s="152"/>
+      <c r="B37" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="30">
+      <c r="A38" s="152"/>
+      <c r="B38" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="15">
+      <c r="A39" s="152"/>
+      <c r="B39" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="15">
+      <c r="A40" s="152"/>
+      <c r="B40" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="15">
+      <c r="A41" s="152"/>
+      <c r="B41" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="15">
+      <c r="A42" s="152"/>
+      <c r="B42" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="15">
+      <c r="A43" s="152"/>
+      <c r="B43" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="15">
+      <c r="A44" s="152"/>
+      <c r="B44" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="15">
+      <c r="A45" s="152"/>
+      <c r="B45" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="15">
+      <c r="A46" s="152"/>
+      <c r="B46" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" ht="15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="89" t="s">
+      <c r="C46" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="15">
+      <c r="A47" s="154"/>
+      <c r="B47" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="15">
-      <c r="A31" s="56" t="s">
+      <c r="C47" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="15">
+      <c r="A48" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B48" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C48" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" ht="15">
-      <c r="A32" s="130"/>
-      <c r="B32" s="89" t="s">
+      <c r="D48" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="15">
+      <c r="A49" s="152"/>
+      <c r="B49" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="120" t="s">
-        <v>9</v>
-      </c>
+      <c r="C49" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="15">
+      <c r="A50" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="106"/>
+    </row>
+    <row r="51" ht="15">
+      <c r="A51" s="152"/>
+      <c r="B51" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="106"/>
+    </row>
+    <row r="52" ht="15">
+      <c r="A52" s="152"/>
+      <c r="B52" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="106"/>
+    </row>
+    <row r="53" ht="15">
+      <c r="A53" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="106"/>
+    </row>
+    <row r="54" ht="15">
+      <c r="A54" s="152"/>
+      <c r="B54" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="106"/>
+    </row>
+    <row r="55" ht="15">
+      <c r="A55" s="152"/>
+      <c r="B55" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A32"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A34"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1435,7 +1435,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A46">
-      <selection activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="8.88671875"/>
